--- a/fuentes/contenidos/grado06/guion04/Escaleta_CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/Escaleta_CN_06_04_CO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="273">
   <si>
     <t>Asignatura</t>
   </si>
@@ -843,16 +843,13 @@
     <t>Relaciona conceptos de la nutrición en bacterias y arqueas</t>
   </si>
   <si>
-    <t>Reconoce la cadena alimenticia</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar los conocimientos sobre la cadena alimenticia</t>
+    <t>Actividad para reforzar los conocimientos sobre la cadena trófica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1236,34 +1233,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,6 +1282,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1614,7 +1611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,94 +1638,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="84" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="85"/>
     </row>
     <row r="3" spans="1:21" s="47" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -2040,7 +2037,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2057,7 @@
         <v>131</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="H9" s="53">
         <v>5</v>
@@ -2069,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K9" s="56" t="s">
         <v>20</v>
@@ -4765,6 +4762,12 @@
   </sheetData>
   <autoFilter ref="A2:U39"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4779,12 +4782,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
